--- a/DOC/汉字.xlsx
+++ b/DOC/汉字.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="190">
   <si>
     <t>欢迎使用</t>
   </si>
@@ -738,6 +738,10 @@
   </si>
   <si>
     <t>点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1079,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3321,6 +3325,14 @@
         <v>188</v>
       </c>
     </row>
+    <row r="119" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J119">
+        <v>119</v>
+      </c>
+      <c r="K119" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/汉字.xlsx
+++ b/DOC/汉字.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="194">
   <si>
     <t>欢迎使用</t>
   </si>
@@ -742,6 +742,22 @@
   </si>
   <si>
     <t>小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1083,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3333,6 +3349,38 @@
         <v>189</v>
       </c>
     </row>
+    <row r="120" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J120">
+        <v>120</v>
+      </c>
+      <c r="K120" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J121">
+        <v>121</v>
+      </c>
+      <c r="K121" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J122">
+        <v>122</v>
+      </c>
+      <c r="K122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J123">
+        <v>123</v>
+      </c>
+      <c r="K123" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
